--- a/assets/notification.xlsx
+++ b/assets/notification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shani\Documents\GitHub\marks\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1396605-A2CF-4F72-8303-9A7C1EF543B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68542968-421F-4C49-B2D5-289F01D3B231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,13 +49,13 @@
     <t>Final Exams Result</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t>Online</t>
   </si>
   <si>
     <t>Results for final-term examinations.</t>
+  </si>
+  <si>
+    <t>To be announced</t>
   </si>
 </sst>
 </file>
@@ -108,15 +108,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -425,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +433,7 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -472,23 +469,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
